--- a/SNA.xlsx
+++ b/SNA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITB\Semester 2\Manajemen Bencana\SNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuni/Documents/GitHub/SNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B81314-342D-BD4E-82A4-BB5D3295C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
   <si>
     <t>Siklus Manajemen Bencana</t>
   </si>
@@ -91,12 +92,15 @@
   </si>
   <si>
     <t>phase</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,20 +412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -452,7 +456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -481,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -510,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -539,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -568,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>5</v>
       </c>
@@ -591,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>6</v>
       </c>
@@ -614,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>7</v>
       </c>
@@ -637,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>8</v>
       </c>
@@ -660,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>9</v>
       </c>
@@ -683,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13">
         <v>1</v>
       </c>
@@ -700,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G14">
         <v>1</v>
       </c>
@@ -717,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15">
         <v>2</v>
       </c>
@@ -734,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>3</v>
       </c>
@@ -751,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G17">
         <v>7</v>
       </c>
@@ -768,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G18">
         <v>9</v>
       </c>
@@ -785,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>9</v>
       </c>
@@ -802,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G20">
         <v>1</v>
       </c>
@@ -821,20 +825,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -850,8 +855,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -867,8 +875,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -884,8 +895,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -901,8 +915,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -918,8 +935,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -935,8 +955,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -969,8 +995,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -986,8 +1015,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1003,8 +1035,11 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1020,8 +1055,11 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1037,8 +1075,11 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1054,8 +1095,11 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1071,8 +1115,11 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1088,8 +1135,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1105,8 +1155,11 @@
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -1122,8 +1175,11 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1138,6 +1194,9 @@
       </c>
       <c r="E18">
         <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
